--- a/pred_ohlcv/54_21/2019-10-30 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 TRX ohlcv.xlsx
@@ -8504,7 +8504,7 @@
         <v>22803174.61240504</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>20795852.29850503</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>22262138.47069495</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>18972402.32319381</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>17720660.26198993</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>18706733.2323296</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>17466322.85631171</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18116169.41141171</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18866059.82621171</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18172390.86047592</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18172390.86047592</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18077457.04257593</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>18077457.04257593</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>16418413.74367592</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>16298875.70447592</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17249312.31167592</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>14571472.77246809</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>9688457.465790762</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>9406801.509490762</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>9415301.509490762</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>9415301.509490762</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>9472289.899190761</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>11210717.05879228</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>11594780.99409228</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>10026640.95337397</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>7321248.798290446</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>8703852.618790446</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>9634281.132346166</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>9006938.555646166</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>9021497.942546166</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>7364659.479761116</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>7420433.401208617</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>8671605.370908618</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>8464462.294708617</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>8464462.294708617</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>8464462.294708617</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>8527104.574808616</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>8527104.574808616</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>8527104.574808616</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>8416256.975108616</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>8416256.975108616</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-15317047.87211644</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-15625791.40261644</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 TRX ohlcv.xlsx
@@ -8504,7 +8504,7 @@
         <v>22803174.61240504</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>20795852.29850503</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>22262138.47069495</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>18972402.32319381</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>16815032.25439381</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>17720660.26198993</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>18706733.2323296</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>17466322.85631171</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18116169.41141171</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18866059.82621171</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18172390.86047592</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18172390.86047592</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18077457.04257593</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>18077457.04257593</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>16418413.74367592</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>16298875.70447592</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17249312.31167592</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>14571472.77246809</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>9688457.465790762</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>9406801.509490762</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>9415301.509490762</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>9415301.509490762</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>9472289.899190761</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>11210717.05879228</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>11594780.99409228</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>10026640.95337397</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>9634281.132346166</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>9006938.555646166</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>9021497.942546166</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>7290508.652736597</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>7420433.401208617</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-11628787.26998858</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-12211120.11278858</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-12248695.28428858</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-12120269.27108858</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-12162811.80218858</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-15317047.87211644</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
